--- a/Projects/PNGHK_SAND/Data/PNGHK_template_2019_14_01.xlsx
+++ b/Projects/PNGHK_SAND/Data/PNGHK_template_2019_14_01.xlsx
@@ -12,10 +12,14 @@
     <sheet name="OSD_RULES" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$P$1:$P$85</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">OSD_RULES!$A$1:$H$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIS!$P$1:$P$85</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">OSD_RULES!$A$1:$H$32</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">OSD_RULES!$A$1:$H$32</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">OSD_RULES!$A$1:$H$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">OSD_RULES!$A$1:$H$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">OSD_RULES!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1485,7 +1489,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1559,6 +1563,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1677,7 +1687,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1770,6 +1780,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1794,7 +1808,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1885,9 +1899,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1897,7 +1911,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1927,9 +1941,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1939,7 +1953,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1969,9 +1983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1981,7 +1995,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2011,9 +2025,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2023,7 +2037,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2053,9 +2067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2065,7 +2079,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2095,9 +2109,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2107,7 +2121,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2137,9 +2151,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2149,7 +2163,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2179,9 +2193,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2191,7 +2205,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2221,9 +2235,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2233,7 +2247,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2263,9 +2277,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2275,7 +2289,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2305,9 +2319,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2317,7 +2331,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2347,9 +2361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2359,7 +2373,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2389,9 +2403,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2401,7 +2415,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2431,9 +2445,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2443,7 +2457,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2473,9 +2487,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2485,7 +2499,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2515,9 +2529,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2527,7 +2541,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2557,9 +2571,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2569,7 +2583,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2599,9 +2613,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2611,7 +2625,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2641,9 +2655,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2653,7 +2667,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2683,9 +2697,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2695,7 +2709,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2725,9 +2739,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2737,7 +2751,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2767,9 +2781,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2779,7 +2793,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2809,9 +2823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2821,7 +2835,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2851,9 +2865,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2863,7 +2877,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2893,9 +2907,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2905,7 +2919,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2935,9 +2949,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2947,7 +2961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2977,9 +2991,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2989,7 +3003,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3019,9 +3033,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3031,7 +3045,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3061,9 +3075,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3073,7 +3087,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3103,9 +3117,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3115,7 +3129,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3145,9 +3159,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3157,7 +3171,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3187,9 +3201,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3199,7 +3213,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3229,9 +3243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3241,7 +3255,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3271,9 +3285,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3283,7 +3297,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3313,9 +3327,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3325,7 +3339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6116400" cy="6352560"/>
+          <a:ext cx="5963400" cy="6351840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3355,9 +3369,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3367,7 +3381,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3400,9 +3414,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3412,7 +3426,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3445,9 +3459,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3457,7 +3471,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3490,9 +3504,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3502,7 +3516,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3535,9 +3549,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3547,7 +3561,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3580,9 +3594,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3592,7 +3606,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3625,9 +3639,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3637,7 +3651,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3670,9 +3684,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3682,7 +3696,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3715,9 +3729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3727,7 +3741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3760,9 +3774,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3772,7 +3786,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3805,9 +3819,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3817,7 +3831,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3850,9 +3864,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3862,7 +3876,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3895,9 +3909,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3907,7 +3921,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3940,9 +3954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3952,7 +3966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3985,9 +3999,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3997,7 +4011,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4030,9 +4044,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4042,7 +4056,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4075,9 +4089,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4087,7 +4101,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4120,9 +4134,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4132,7 +4146,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4165,9 +4179,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4177,7 +4191,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4210,9 +4224,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4222,7 +4236,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4255,9 +4269,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4267,7 +4281,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4300,9 +4314,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4312,7 +4326,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4345,9 +4359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4357,7 +4371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4390,9 +4404,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4402,7 +4416,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4435,9 +4449,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4447,7 +4461,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4480,9 +4494,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4492,7 +4506,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4525,9 +4539,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4537,7 +4551,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4570,9 +4584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4582,7 +4596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4615,9 +4629,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4627,7 +4641,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4660,9 +4674,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4672,7 +4686,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4705,9 +4719,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4717,7 +4731,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4750,9 +4764,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4762,7 +4776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4795,9 +4809,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4807,7 +4821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4840,9 +4854,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>786240</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4852,7 +4866,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6186600" cy="6352920"/>
+          <a:ext cx="6033600" cy="6352200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4890,9 +4904,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>398880</xdr:colOff>
+      <xdr:colOff>398160</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4902,7 +4916,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7304400" cy="11512800"/>
+          <a:ext cx="7132320" cy="11512080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4932,9 +4946,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>398880</xdr:colOff>
+      <xdr:colOff>398160</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4944,7 +4958,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7304400" cy="11512800"/>
+          <a:ext cx="7132320" cy="11512080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4974,9 +4988,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>398880</xdr:colOff>
+      <xdr:colOff>398160</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4986,7 +5000,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7304400" cy="11512800"/>
+          <a:ext cx="7132320" cy="11512080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5016,9 +5030,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>398880</xdr:colOff>
+      <xdr:colOff>398160</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5028,7 +5042,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7304400" cy="11512800"/>
+          <a:ext cx="7132320" cy="11512080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5058,9 +5072,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>398880</xdr:colOff>
+      <xdr:colOff>398160</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5070,7 +5084,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7304400" cy="11512800"/>
+          <a:ext cx="7132320" cy="11512080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5100,9 +5114,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>507240</xdr:colOff>
+      <xdr:colOff>506520</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5112,7 +5126,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7412760" cy="6552360"/>
+          <a:ext cx="7240680" cy="6551640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5145,9 +5159,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>507240</xdr:colOff>
+      <xdr:colOff>506520</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5157,7 +5171,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7412760" cy="6552360"/>
+          <a:ext cx="7240680" cy="6551640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5190,9 +5204,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>507240</xdr:colOff>
+      <xdr:colOff>506520</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5202,7 +5216,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7412760" cy="6552360"/>
+          <a:ext cx="7240680" cy="6551640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5235,9 +5249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>507240</xdr:colOff>
+      <xdr:colOff>506520</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5247,7 +5261,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7412760" cy="6552360"/>
+          <a:ext cx="7240680" cy="6551640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5280,9 +5294,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>507240</xdr:colOff>
+      <xdr:colOff>506520</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5292,7 +5306,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7412760" cy="6552360"/>
+          <a:ext cx="7240680" cy="6551640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5327,39 +5341,40 @@
   <dimension ref="A1:AJ85"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L58" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+      <selection pane="bottomRight" activeCell="P82" activeCellId="0" sqref="P82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="42.3877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="108.265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="83.5612244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="20.25"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="3" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="97.0612244897959"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="58.8571428571429"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="60.4744897959184"/>
-    <col collapsed="false" hidden="false" max="36" min="24" style="5" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1021" min="37" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="41.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="105.831632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="81.6683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="3" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="94.765306122449"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="57.5051020408163"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="58.9897959183674"/>
+    <col collapsed="false" hidden="false" max="36" min="24" style="5" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1021" min="37" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9526,8 +9541,8 @@
       <c r="M54" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="11" t="s">
-        <v>27</v>
+      <c r="N54" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O54" s="11" t="s">
         <v>27</v>
@@ -9604,8 +9619,8 @@
       <c r="M55" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N55" s="11" t="s">
-        <v>27</v>
+      <c r="N55" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O55" s="11" t="s">
         <v>27</v>
@@ -9756,8 +9771,8 @@
       <c r="M57" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N57" s="11" t="s">
-        <v>27</v>
+      <c r="N57" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O57" s="11" t="s">
         <v>27</v>
@@ -9834,8 +9849,8 @@
       <c r="M58" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N58" s="11" t="s">
-        <v>27</v>
+      <c r="N58" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O58" s="11" t="s">
         <v>27</v>
@@ -9910,7 +9925,7 @@
       <c r="M59" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="23" t="s">
         <v>26</v>
       </c>
       <c r="O59" s="11" t="s">
@@ -9986,8 +10001,8 @@
       <c r="M60" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N60" s="11" t="s">
-        <v>27</v>
+      <c r="N60" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O60" s="11" t="s">
         <v>27</v>
@@ -10064,8 +10079,8 @@
       <c r="M61" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N61" s="11" t="s">
-        <v>27</v>
+      <c r="N61" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O61" s="11" t="s">
         <v>27</v>
@@ -10120,7 +10135,7 @@
         <v>25</v>
       </c>
       <c r="E62" s="13"/>
-      <c r="F62" s="23"/>
+      <c r="F62" s="24"/>
       <c r="G62" s="21"/>
       <c r="H62" s="15" t="s">
         <v>26</v>
@@ -10218,8 +10233,8 @@
       <c r="M63" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N63" s="11" t="s">
-        <v>27</v>
+      <c r="N63" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O63" s="11" t="s">
         <v>27</v>
@@ -10298,8 +10313,8 @@
       <c r="M64" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N64" s="11" t="s">
-        <v>27</v>
+      <c r="N64" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O64" s="11" t="s">
         <v>27</v>
@@ -10376,7 +10391,7 @@
       <c r="M65" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="23" t="s">
         <v>26</v>
       </c>
       <c r="O65" s="11" t="s">
@@ -10454,8 +10469,8 @@
       <c r="M66" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N66" s="11" t="s">
-        <v>27</v>
+      <c r="N66" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O66" s="11" t="s">
         <v>27</v>
@@ -10534,8 +10549,8 @@
       <c r="M67" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N67" s="11" t="s">
-        <v>27</v>
+      <c r="N67" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O67" s="11" t="s">
         <v>27</v>
@@ -10690,8 +10705,8 @@
       <c r="M69" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N69" s="11" t="s">
-        <v>27</v>
+      <c r="N69" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O69" s="11" t="s">
         <v>27</v>
@@ -10770,8 +10785,8 @@
       <c r="M70" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N70" s="11" t="s">
-        <v>27</v>
+      <c r="N70" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O70" s="11" t="s">
         <v>27</v>
@@ -10848,7 +10863,7 @@
       <c r="M71" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N71" s="11" t="s">
+      <c r="N71" s="23" t="s">
         <v>26</v>
       </c>
       <c r="O71" s="11" t="s">
@@ -10926,8 +10941,8 @@
       <c r="M72" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N72" s="11" t="s">
-        <v>27</v>
+      <c r="N72" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O72" s="11" t="s">
         <v>27</v>
@@ -11006,8 +11021,8 @@
       <c r="M73" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N73" s="11" t="s">
-        <v>27</v>
+      <c r="N73" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O73" s="11" t="s">
         <v>27</v>
@@ -11162,8 +11177,8 @@
       <c r="M75" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N75" s="11" t="s">
-        <v>27</v>
+      <c r="N75" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O75" s="11" t="s">
         <v>27</v>
@@ -11242,8 +11257,8 @@
       <c r="M76" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N76" s="11" t="s">
-        <v>27</v>
+      <c r="N76" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O76" s="11" t="s">
         <v>27</v>
@@ -11398,8 +11413,8 @@
       <c r="M78" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N78" s="11" t="s">
-        <v>27</v>
+      <c r="N78" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O78" s="11" t="s">
         <v>27</v>
@@ -11478,8 +11493,8 @@
       <c r="M79" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N79" s="11" t="s">
-        <v>27</v>
+      <c r="N79" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O79" s="11" t="s">
         <v>27</v>
@@ -11632,14 +11647,14 @@
       <c r="M81" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N81" s="11" t="s">
+      <c r="N81" s="16" t="s">
         <v>26</v>
       </c>
       <c r="O81" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P81" s="11" t="s">
-        <v>27</v>
+      <c r="P81" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="Q81" s="15" t="s">
         <v>40</v>
@@ -11676,7 +11691,7 @@
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="16"/>
-      <c r="G82" s="23"/>
+      <c r="G82" s="24"/>
       <c r="H82" s="15" t="s">
         <v>26</v>
       </c>
@@ -11695,7 +11710,7 @@
       <c r="M82" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N82" s="11" t="s">
+      <c r="N82" s="16" t="s">
         <v>26</v>
       </c>
       <c r="O82" s="11" t="s">
@@ -11760,13 +11775,13 @@
       <c r="M83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N83" s="11" t="s">
+      <c r="N83" s="16" t="s">
         <v>26</v>
       </c>
       <c r="O83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P83" s="11" t="s">
+      <c r="P83" s="16" t="s">
         <v>26</v>
       </c>
       <c r="Q83" s="15" t="s">
@@ -11825,13 +11840,13 @@
       <c r="M84" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N84" s="11" t="s">
+      <c r="N84" s="16" t="s">
         <v>26</v>
       </c>
       <c r="O84" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P84" s="11" t="s">
+      <c r="P84" s="16" t="s">
         <v>26</v>
       </c>
       <c r="Q84" s="15" t="s">
@@ -11871,7 +11886,7 @@
         <v>95</v>
       </c>
       <c r="F85" s="16"/>
-      <c r="G85" s="24"/>
+      <c r="G85" s="25"/>
       <c r="H85" s="15" t="s">
         <v>26</v>
       </c>
@@ -11890,7 +11905,7 @@
       <c r="M85" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N85" s="11" t="s">
+      <c r="N85" s="16" t="s">
         <v>26</v>
       </c>
       <c r="O85" s="11" t="s">
@@ -11920,6 +11935,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="P1:P85"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -11945,13 +11961,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.969387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.5867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11984,22 +12000,22 @@
       <c r="A2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="25" t="n">
+      <c r="F2" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="28" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12007,40 +12023,40 @@
       <c r="A3" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="25" t="n">
+      <c r="F4" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="28" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12048,40 +12064,40 @@
       <c r="A5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="25" t="n">
+      <c r="F6" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="28" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12089,22 +12105,22 @@
       <c r="A7" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="25" t="n">
+      <c r="F7" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="28" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12112,22 +12128,22 @@
       <c r="A8" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="25" t="n">
+      <c r="F8" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="28" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12135,379 +12151,379 @@
       <c r="A9" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="L10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="L12" s="29"/>
+      <c r="L12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="L13" s="29"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="L14" s="29"/>
+      <c r="L14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="L15" s="29"/>
+      <c r="L15" s="30"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="L16" s="29"/>
+      <c r="L16" s="30"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="30"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="28"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="28"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="28"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="30"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="30"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="25" t="s">
+      <c r="G28" s="31"/>
+      <c r="H28" s="26" t="s">
         <v>134</v>
       </c>
     </row>
@@ -12515,20 +12531,20 @@
       <c r="A29" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="25" t="s">
+      <c r="G29" s="31"/>
+      <c r="H29" s="26" t="s">
         <v>134</v>
       </c>
     </row>
@@ -12536,55 +12552,55 @@
       <c r="A30" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="30"/>
+      <c r="G30" s="31"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G32" s="30"/>
+      <c r="G32" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H32">

--- a/Projects/PNGHK_SAND/Data/PNGHK_template_2019_14_01.xlsx
+++ b/Projects/PNGHK_SAND/Data/PNGHK_template_2019_14_01.xlsx
@@ -18,6 +18,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIS!$P$1:$P$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIS!$P$1:$P$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIS!$P$1:$P$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIS!$P$1:$P$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIS!$P$1:$P$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIS!$P$1:$P$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIS!$P$1:$P$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIS!$P$1:$P$85</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">OSD_RULES!$A$1:$H$32</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">OSD_RULES!$A$1:$H$32</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">OSD_RULES!$A$1:$H$32</definedName>
@@ -26,6 +31,11 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">OSD_RULES!$A$1:$H$32</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">OSD_RULES!$A$1:$H$32</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">OSD_RULES!$A$1:$H$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">OSD_RULES!$A$1:$H$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">OSD_RULES!$A$1:$H$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">OSD_RULES!$A$1:$H$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">OSD_RULES!$A$1:$H$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">OSD_RULES!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -881,60 +891,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G53" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Umar:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Pro-rate Scene size
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G55" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Umar:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Pro-rate Scene size
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -1081,7 +1037,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="134">
   <si>
     <t xml:space="preserve">KPI_ID</t>
   </si>
@@ -1200,7 +1156,7 @@
     <t xml:space="preserve">Facings_SOS%_SKU_Store</t>
   </si>
   <si>
-    <t xml:space="preserve">product_ean_code</t>
+    <t xml:space="preserve">product_fk</t>
   </si>
   <si>
     <t xml:space="preserve">SOS% of SKU across store visit only for main shelves</t>
@@ -1290,184 +1246,184 @@
     <t xml:space="preserve">Facings_SOS%_Brand_Category</t>
   </si>
   <si>
+    <t xml:space="preserve">SOS% of Brands across category in a  store visit only for main shelves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facings_SOS%_SKU_Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS% of SKU across category in a  store visit only for main shelves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear_SOS%_Manufacturer_Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS% of Manufacturers across category in a  store visit only for main shelves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Linear Length across category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear_SOS%_Brand_Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear Length of specific brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear_SOS%_SKU_Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS% of SKU across category in a store visit only for main shelves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear Length of specific SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display%_Manufacturer_Store_PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display-Display Rack,Display-Display Stack,Display-Display GE Non Booked,Display-Casher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display% of Manufacturer across the store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Linear length of a Manufacturer = PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Linear length across store for displays </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display-Display GE Booked,Display-Mega Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display%_Manufacturer_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Linear length of a Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display%_Brand_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display%_SKU_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display%_Manufacturer_Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EACH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display% of Manufacturer in a category across the store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Linear length of a Manufacturer in a category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Linear length of category across store for displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display%_Brand_Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display%_SKU_Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display%_Manufacturer_Category_Scene Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display%_Brand_Category_Scene Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display%_SKU_Category_Scene Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DisplayNumber%_SKU_Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display-Display Rack,Display-Display Stack,Display-Display GE Non Booked,Display-Casher,Display-Display GE Booked,Display-Mega Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Number% of SKU  across the store </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total numnber of displays(scenes) SKU has atleast one facing .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total displays (scenes) in the store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DisplayNumber%_SKU_Store_Scene Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Number% of SKU  across the scene types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total number of display types(scenes in scene type) SKU has atleast one facing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total displays by display types(scenes in scene type) in the store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has_OSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has_hotspot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSD_Number_of_shelves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_EAN_CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOTSPOT_EAN_CODE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hair care</t>
   </si>
   <si>
-    <t xml:space="preserve">SOS% of Brands across category in a  store visit only for main shelves</t>
+    <t xml:space="preserve">MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf-Hair Care-Wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf-Hair Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf-Baby Care-Wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf-Baby Care</t>
   </si>
   <si>
     <t xml:space="preserve">Fem Care</t>
   </si>
   <si>
+    <t xml:space="preserve">Shelf-Fem Care-Wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf-Fem Care</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tooth Paste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facings_SOS%_SKU_Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS% of SKU across category in a  store visit only for main shelves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear_SOS%_Manufacturer_Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS% of Manufacturers across category in a  store visit only for main shelves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Linear Length across category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear_SOS%_Brand_Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear Length of specific brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear_SOS%_SKU_Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS% of SKU across category in a store visit only for main shelves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear Length of specific SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display%_Manufacturer_Store_PNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display-Display Rack,Display-Display Stack,Display-Display GE Non Booked,Display-Casher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display% of Manufacturer across the store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Linear length of a Manufacturer = PNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Linear length across store for displays </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display-Display GE Booked,Display-Mega Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display%_Manufacturer_Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Linear length of a Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display%_Brand_Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display%_SKU_Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display%_Manufacturer_Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EACH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display% of Manufacturer in a category across the store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Linear length of a Manufacturer in a category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Linear length of category across store for displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display%_Brand_Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display%_SKU_Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display%_Manufacturer_Category_Scene Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display%_Brand_Category_Scene Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display%_SKU_Category_Scene Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DisplayNumber%_SKU_Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display-Display Rack,Display-Display Stack,Display-Display GE Non Booked,Display-Casher,Display-Display GE Booked,Display-Mega Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display Number% of SKU  across the store </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total numnber of displays(scenes) SKU has atleast one facing .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total displays (scenes) in the store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DisplayNumber%_SKU_Store_Scene Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display Number% of SKU  across the scene types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total number of display types(scenes in scene type) SKU has atleast one facing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total displays by display types(scenes in scene type) in the store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retailer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has_OSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has_hotspot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSD_Number_of_shelves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSM_EAN_CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOTSPOT_EAN_CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf-Hair Care-Wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSM003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf-Hair Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf-Baby Care-Wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf-Baby Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf-Fem Care-Wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf-Fem Care</t>
   </si>
   <si>
     <t xml:space="preserve">WAT</t>
@@ -1773,7 +1729,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1892,9 +1848,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1904,7 +1860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1934,9 +1890,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1946,7 +1902,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1976,9 +1932,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1988,7 +1944,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2018,9 +1974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2030,7 +1986,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2060,9 +2016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2072,7 +2028,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2102,9 +2058,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2114,7 +2070,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2144,9 +2100,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2156,7 +2112,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2186,9 +2142,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2198,7 +2154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2228,9 +2184,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2240,7 +2196,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2270,9 +2226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2282,7 +2238,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2312,9 +2268,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2324,7 +2280,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2354,9 +2310,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2366,7 +2322,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2396,9 +2352,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2408,7 +2364,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2438,9 +2394,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2450,7 +2406,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2480,9 +2436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2492,7 +2448,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2522,9 +2478,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2534,7 +2490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2564,9 +2520,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2576,7 +2532,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2606,9 +2562,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2618,7 +2574,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2648,9 +2604,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2660,7 +2616,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2690,9 +2646,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2702,7 +2658,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2732,9 +2688,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2744,7 +2700,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2774,9 +2730,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2786,7 +2742,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2816,9 +2772,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2828,7 +2784,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2858,9 +2814,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2870,7 +2826,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2900,9 +2856,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2912,7 +2868,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2942,9 +2898,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2954,7 +2910,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2984,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2996,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3026,9 +2982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3038,7 +2994,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3068,9 +3024,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3080,7 +3036,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3110,9 +3066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3122,7 +3078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3152,9 +3108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3164,7 +3120,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3194,9 +3150,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3206,7 +3162,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3236,9 +3192,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3248,7 +3204,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3278,9 +3234,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3290,7 +3246,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3320,9 +3276,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3332,7 +3288,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5771880" cy="6346080"/>
+          <a:ext cx="5983560" cy="6423840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3362,9 +3318,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3374,7 +3330,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3407,9 +3363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3419,7 +3375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3452,9 +3408,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3464,7 +3420,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3497,9 +3453,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3509,7 +3465,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3542,9 +3498,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3554,7 +3510,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3587,9 +3543,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3599,7 +3555,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3632,9 +3588,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3644,7 +3600,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3677,9 +3633,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3689,7 +3645,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3722,9 +3678,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3734,7 +3690,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3767,9 +3723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3779,7 +3735,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3812,9 +3768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3824,7 +3780,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3857,9 +3813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3869,7 +3825,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3902,9 +3858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3914,7 +3870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3947,9 +3903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3959,7 +3915,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3992,9 +3948,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4004,7 +3960,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4037,9 +3993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4049,7 +4005,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4082,9 +4038,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4094,7 +4050,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4127,9 +4083,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4139,7 +4095,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4172,9 +4128,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4184,7 +4140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4217,9 +4173,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4229,7 +4185,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4262,9 +4218,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4274,7 +4230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4307,9 +4263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4319,7 +4275,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4352,9 +4308,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4364,7 +4320,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4397,9 +4353,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4409,7 +4365,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4442,9 +4398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4454,7 +4410,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4487,9 +4443,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4499,7 +4455,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4532,9 +4488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4544,7 +4500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4577,9 +4533,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4589,7 +4545,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4622,9 +4578,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4634,7 +4590,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4667,9 +4623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4679,7 +4635,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4712,9 +4668,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4724,7 +4680,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4757,9 +4713,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4769,7 +4725,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4802,9 +4758,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4814,7 +4770,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4847,9 +4803,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4859,7 +4815,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5842080" cy="6346440"/>
+          <a:ext cx="6053760" cy="6424200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4897,9 +4853,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>397080</xdr:colOff>
+      <xdr:colOff>395280</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4909,7 +4865,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6711840" cy="11511000"/>
+          <a:ext cx="6329160" cy="11509200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4939,9 +4895,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>397080</xdr:colOff>
+      <xdr:colOff>395280</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4951,7 +4907,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6711840" cy="11511000"/>
+          <a:ext cx="6329160" cy="11509200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4981,9 +4937,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>397080</xdr:colOff>
+      <xdr:colOff>395280</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4993,7 +4949,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6711840" cy="11511000"/>
+          <a:ext cx="6329160" cy="11509200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5023,9 +4979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>397080</xdr:colOff>
+      <xdr:colOff>395280</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5035,7 +4991,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6711840" cy="11511000"/>
+          <a:ext cx="6329160" cy="11509200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5065,9 +5021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>397080</xdr:colOff>
+      <xdr:colOff>395280</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5077,7 +5033,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6711840" cy="11511000"/>
+          <a:ext cx="6329160" cy="11509200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5107,9 +5063,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>505440</xdr:colOff>
+      <xdr:colOff>503640</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5119,7 +5075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6820200" cy="6550560"/>
+          <a:ext cx="6437520" cy="6548760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5152,9 +5108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>505440</xdr:colOff>
+      <xdr:colOff>503640</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5164,7 +5120,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6820200" cy="6550560"/>
+          <a:ext cx="6437520" cy="6548760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5197,9 +5153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>505440</xdr:colOff>
+      <xdr:colOff>503640</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5209,7 +5165,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6820200" cy="6550560"/>
+          <a:ext cx="6437520" cy="6548760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5242,9 +5198,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>505440</xdr:colOff>
+      <xdr:colOff>503640</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5254,7 +5210,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6820200" cy="6550560"/>
+          <a:ext cx="6437520" cy="6548760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5287,9 +5243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>505440</xdr:colOff>
+      <xdr:colOff>503640</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5299,7 +5255,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6820200" cy="6550560"/>
+          <a:ext cx="6437520" cy="6548760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5334,39 +5290,39 @@
   <dimension ref="1:85"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="R59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
-      <selection pane="bottomRight" activeCell="R65" activeCellId="0" sqref="R65"/>
+      <selection pane="bottomRight" activeCell="D76" activeCellId="0" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="102.321428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="78.8367346938775"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.5"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="13.5"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="91.5255102040816"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="56.8316326530612"/>
-    <col collapsed="false" hidden="false" max="35" min="23" style="5" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1020" min="36" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="45.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="96.6530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="74.3826530612245"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="86.3928571428571"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="52.2397959183674"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="35" min="23" style="5" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1020" min="36" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5675,7 +5631,7 @@
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
@@ -6581,8 +6537,8 @@
         <v>52</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="19" t="s">
-        <v>69</v>
+      <c r="F17" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="15" t="s">
@@ -6620,7 +6576,7 @@
         <v>29</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U17" s="11" t="s">
         <v>37</v>
@@ -6695,7 +6651,7 @@
         <v>29</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U18" s="11" t="s">
         <v>37</v>
@@ -6731,8 +6687,8 @@
         <v>58</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="19" t="s">
-        <v>71</v>
+      <c r="F19" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="15" t="s">
@@ -6770,7 +6726,7 @@
         <v>29</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U19" s="11" t="s">
         <v>37</v>
@@ -6806,8 +6762,8 @@
         <v>60</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="19" t="s">
-        <v>72</v>
+      <c r="F20" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="15" t="s">
@@ -6845,7 +6801,7 @@
         <v>29</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>37</v>
@@ -6920,7 +6876,7 @@
         <v>29</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U21" s="11" t="s">
         <v>37</v>
@@ -6995,7 +6951,7 @@
         <v>29</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>37</v>
@@ -7070,7 +7026,7 @@
         <v>29</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U23" s="11" t="s">
         <v>37</v>
@@ -7100,14 +7056,14 @@
         <v>22</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="13"/>
-      <c r="F24" s="19" t="s">
-        <v>69</v>
+      <c r="F24" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="15" t="s">
@@ -7145,7 +7101,7 @@
         <v>29</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="U24" s="11" t="s">
         <v>41</v>
@@ -7175,7 +7131,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>56</v>
@@ -7220,7 +7176,7 @@
         <v>29</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="U25" s="11" t="s">
         <v>41</v>
@@ -7250,14 +7206,14 @@
         <v>22</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E26" s="13"/>
-      <c r="F26" s="19" t="s">
-        <v>71</v>
+      <c r="F26" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="15" t="s">
@@ -7295,7 +7251,7 @@
         <v>29</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="U26" s="11" t="s">
         <v>41</v>
@@ -7325,14 +7281,14 @@
         <v>22</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>60</v>
       </c>
       <c r="E27" s="13"/>
-      <c r="F27" s="19" t="s">
-        <v>72</v>
+      <c r="F27" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="15" t="s">
@@ -7370,7 +7326,7 @@
         <v>29</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="U27" s="11" t="s">
         <v>41</v>
@@ -7400,7 +7356,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>62</v>
@@ -7445,7 +7401,7 @@
         <v>29</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="U28" s="11" t="s">
         <v>41</v>
@@ -7475,7 +7431,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>64</v>
@@ -7520,7 +7476,7 @@
         <v>29</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="U29" s="11" t="s">
         <v>41</v>
@@ -7550,7 +7506,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>66</v>
@@ -7595,7 +7551,7 @@
         <v>29</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="U30" s="11" t="s">
         <v>41</v>
@@ -7625,14 +7581,14 @@
         <v>42</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="19" t="s">
-        <v>69</v>
+      <c r="F31" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="15" t="s">
@@ -7670,13 +7626,13 @@
         <v>29</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U31" s="11" t="s">
         <v>44</v>
       </c>
       <c r="V31" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
@@ -7700,7 +7656,7 @@
         <v>42</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>56</v>
@@ -7745,13 +7701,13 @@
         <v>29</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U32" s="11" t="s">
         <v>44</v>
       </c>
       <c r="V32" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
@@ -7775,14 +7731,14 @@
         <v>42</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="19" t="s">
-        <v>71</v>
+      <c r="F33" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="15" t="s">
@@ -7820,13 +7776,13 @@
         <v>29</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U33" s="11" t="s">
         <v>44</v>
       </c>
       <c r="V33" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -7850,14 +7806,14 @@
         <v>42</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>60</v>
       </c>
       <c r="E34" s="13"/>
-      <c r="F34" s="19" t="s">
-        <v>72</v>
+      <c r="F34" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="15" t="s">
@@ -7895,13 +7851,13 @@
         <v>29</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U34" s="11" t="s">
         <v>44</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
@@ -7925,7 +7881,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>62</v>
@@ -7970,13 +7926,13 @@
         <v>29</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U35" s="11" t="s">
         <v>44</v>
       </c>
       <c r="V35" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
@@ -8000,7 +7956,7 @@
         <v>42</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>64</v>
@@ -8045,13 +8001,13 @@
         <v>29</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U36" s="11" t="s">
         <v>44</v>
       </c>
       <c r="V36" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
@@ -8075,7 +8031,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>66</v>
@@ -8120,13 +8076,13 @@
         <v>29</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U37" s="11" t="s">
         <v>44</v>
       </c>
       <c r="V37" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
@@ -8150,14 +8106,14 @@
         <v>42</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E38" s="13"/>
-      <c r="F38" s="19" t="s">
-        <v>69</v>
+      <c r="F38" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="15" t="s">
@@ -8195,13 +8151,13 @@
         <v>29</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U38" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="V38" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
@@ -8225,7 +8181,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>56</v>
@@ -8270,13 +8226,13 @@
         <v>29</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U39" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="V39" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
@@ -8300,14 +8256,14 @@
         <v>42</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="13"/>
-      <c r="F40" s="19" t="s">
-        <v>71</v>
+      <c r="F40" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="15" t="s">
@@ -8345,13 +8301,13 @@
         <v>29</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U40" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="V40" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
@@ -8375,14 +8331,14 @@
         <v>42</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>60</v>
       </c>
       <c r="E41" s="13"/>
-      <c r="F41" s="19" t="s">
-        <v>72</v>
+      <c r="F41" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="15" t="s">
@@ -8420,13 +8376,13 @@
         <v>29</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U41" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="V41" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
@@ -8450,7 +8406,7 @@
         <v>42</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>62</v>
@@ -8495,13 +8451,13 @@
         <v>29</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U42" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="V42" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
@@ -8525,7 +8481,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>64</v>
@@ -8570,13 +8526,13 @@
         <v>29</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U43" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="V43" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
@@ -8600,7 +8556,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>66</v>
@@ -8645,13 +8601,13 @@
         <v>29</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U44" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="V44" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
@@ -8675,14 +8631,14 @@
         <v>42</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E45" s="13"/>
-      <c r="F45" s="19" t="s">
-        <v>69</v>
+      <c r="F45" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="15" t="s">
@@ -8720,13 +8676,13 @@
         <v>29</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U45" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V45" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
@@ -8750,7 +8706,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>56</v>
@@ -8795,13 +8751,13 @@
         <v>29</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U46" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V46" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
@@ -8825,14 +8781,14 @@
         <v>42</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E47" s="13"/>
-      <c r="F47" s="19" t="s">
-        <v>71</v>
+      <c r="F47" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="15" t="s">
@@ -8870,13 +8826,13 @@
         <v>29</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U47" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V47" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
@@ -8900,14 +8856,14 @@
         <v>42</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>60</v>
       </c>
       <c r="E48" s="13"/>
-      <c r="F48" s="19" t="s">
-        <v>72</v>
+      <c r="F48" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="15" t="s">
@@ -8945,13 +8901,13 @@
         <v>29</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U48" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V48" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
@@ -8975,7 +8931,7 @@
         <v>42</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>62</v>
@@ -9020,13 +8976,13 @@
         <v>29</v>
       </c>
       <c r="T49" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U49" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V49" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
@@ -9050,7 +9006,7 @@
         <v>42</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>64</v>
@@ -9095,13 +9051,13 @@
         <v>29</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U50" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V50" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
@@ -9125,7 +9081,7 @@
         <v>42</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>66</v>
@@ -9170,13 +9126,13 @@
         <v>29</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U51" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V51" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
@@ -9200,10 +9156,10 @@
         <v>42</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E52" s="16"/>
       <c r="F52" s="20"/>
@@ -9245,13 +9201,13 @@
         <v>29</v>
       </c>
       <c r="T52" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U52" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="V52" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
@@ -9275,15 +9231,15 @@
         <v>42</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="21" t="n">
-        <v>400</v>
+      <c r="G53" s="22" t="n">
+        <v>4000</v>
       </c>
       <c r="H53" s="15" t="s">
         <v>25</v>
@@ -9322,13 +9278,13 @@
         <v>29</v>
       </c>
       <c r="T53" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U53" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="V53" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
@@ -9352,10 +9308,10 @@
         <v>42</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="11"/>
@@ -9395,13 +9351,13 @@
         <v>29</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U54" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V54" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
@@ -9425,15 +9381,15 @@
         <v>42</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E55" s="16"/>
       <c r="F55" s="11"/>
       <c r="G55" s="22" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="H55" s="15" t="s">
         <v>25</v>
@@ -9470,13 +9426,13 @@
         <v>29</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U55" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V55" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
@@ -9500,7 +9456,7 @@
         <v>42</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>24</v>
@@ -9543,13 +9499,13 @@
         <v>29</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U56" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V56" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
@@ -9573,10 +9529,10 @@
         <v>42</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="11"/>
@@ -9616,13 +9572,13 @@
         <v>29</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U57" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V57" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
@@ -9646,15 +9602,15 @@
         <v>42</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="11"/>
       <c r="G58" s="22" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="H58" s="15" t="s">
         <v>25</v>
@@ -9691,13 +9647,13 @@
         <v>29</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U58" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V58" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
@@ -9721,7 +9677,7 @@
         <v>42</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>24</v>
@@ -9764,13 +9720,13 @@
         <v>29</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U59" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V59" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
@@ -9794,10 +9750,10 @@
         <v>42</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="11"/>
@@ -9837,13 +9793,13 @@
         <v>29</v>
       </c>
       <c r="T60" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U60" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V60" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
@@ -9867,15 +9823,15 @@
         <v>42</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="11"/>
       <c r="G61" s="22" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>25</v>
@@ -9912,13 +9868,13 @@
         <v>29</v>
       </c>
       <c r="T61" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U61" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V61" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
@@ -9942,7 +9898,7 @@
         <v>42</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>24</v>
@@ -9977,7 +9933,7 @@
       <c r="P62" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q62" s="11" t="s">
+      <c r="Q62" s="15" t="s">
         <v>39</v>
       </c>
       <c r="R62" s="11"/>
@@ -9985,13 +9941,13 @@
         <v>29</v>
       </c>
       <c r="T62" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U62" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V62" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
@@ -10015,14 +9971,14 @@
         <v>42</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="15" t="s">
@@ -10060,13 +10016,13 @@
         <v>29</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U63" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V63" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
@@ -10090,17 +10046,17 @@
         <v>42</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G64" s="22" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="H64" s="15" t="s">
         <v>25</v>
@@ -10137,13 +10093,13 @@
         <v>29</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U64" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V64" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
@@ -10167,14 +10123,14 @@
         <v>42</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G65" s="21"/>
       <c r="H65" s="15" t="s">
@@ -10212,13 +10168,13 @@
         <v>29</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U65" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V65" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
@@ -10242,14 +10198,14 @@
         <v>42</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="15" t="s">
@@ -10287,13 +10243,13 @@
         <v>29</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U66" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V66" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
@@ -10317,17 +10273,17 @@
         <v>42</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G67" s="22" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="H67" s="15" t="s">
         <v>25</v>
@@ -10364,13 +10320,13 @@
         <v>29</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U67" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V67" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
@@ -10394,14 +10350,14 @@
         <v>42</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G68" s="21"/>
       <c r="H68" s="15" t="s">
@@ -10439,13 +10395,13 @@
         <v>29</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U68" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V68" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
@@ -10469,14 +10425,14 @@
         <v>42</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" s="15" t="s">
@@ -10514,13 +10470,13 @@
         <v>29</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U69" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V69" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
@@ -10544,17 +10500,17 @@
         <v>42</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G70" s="22" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="H70" s="15" t="s">
         <v>25</v>
@@ -10591,13 +10547,13 @@
         <v>29</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U70" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V70" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
@@ -10621,14 +10577,14 @@
         <v>42</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G71" s="21"/>
       <c r="H71" s="15" t="s">
@@ -10658,7 +10614,7 @@
       <c r="P71" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q71" s="11" t="s">
+      <c r="Q71" s="15" t="s">
         <v>39</v>
       </c>
       <c r="R71" s="11"/>
@@ -10666,13 +10622,13 @@
         <v>29</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U71" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V71" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
@@ -10696,14 +10652,16 @@
         <v>42</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E72" s="16"/>
+        <v>81</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="F72" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="15" t="s">
@@ -10741,13 +10699,13 @@
         <v>29</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U72" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V72" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
@@ -10771,17 +10729,19 @@
         <v>42</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E73" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="F73" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G73" s="22" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="H73" s="15" t="s">
         <v>25</v>
@@ -10818,13 +10778,13 @@
         <v>29</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U73" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V73" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
@@ -10848,14 +10808,16 @@
         <v>42</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="13"/>
+      <c r="E74" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="F74" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G74" s="21"/>
       <c r="H74" s="15" t="s">
@@ -10893,13 +10855,13 @@
         <v>29</v>
       </c>
       <c r="T74" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U74" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V74" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
@@ -10923,14 +10885,16 @@
         <v>42</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E75" s="16"/>
+        <v>81</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="F75" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="15" t="s">
@@ -10968,13 +10932,13 @@
         <v>29</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U75" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V75" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
@@ -10998,17 +10962,19 @@
         <v>42</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E76" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="F76" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G76" s="22" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="H76" s="15" t="s">
         <v>25</v>
@@ -11045,13 +11011,13 @@
         <v>29</v>
       </c>
       <c r="T76" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U76" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V76" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
@@ -11075,14 +11041,16 @@
         <v>42</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="13"/>
+      <c r="E77" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="F77" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G77" s="21"/>
       <c r="H77" s="15" t="s">
@@ -11120,13 +11088,13 @@
         <v>29</v>
       </c>
       <c r="T77" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U77" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V77" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
@@ -11150,14 +11118,16 @@
         <v>42</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E78" s="16"/>
+        <v>81</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="F78" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="15" t="s">
@@ -11195,13 +11165,13 @@
         <v>29</v>
       </c>
       <c r="T78" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U78" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V78" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
@@ -11225,17 +11195,19 @@
         <v>42</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E79" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="F79" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G79" s="22" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="H79" s="15" t="s">
         <v>25</v>
@@ -11272,13 +11244,13 @@
         <v>29</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U79" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V79" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
@@ -11302,14 +11274,16 @@
         <v>42</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E80" s="13"/>
+      <c r="E80" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="F80" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G80" s="21"/>
       <c r="H80" s="15" t="s">
@@ -11347,13 +11321,13 @@
         <v>29</v>
       </c>
       <c r="T80" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U80" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V80" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
@@ -11374,13 +11348,13 @@
         <v>25</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
@@ -11420,13 +11394,13 @@
         <v>29</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="U81" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="V81" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11434,10 +11408,10 @@
         <v>25</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>24</v>
@@ -11480,13 +11454,13 @@
         <v>29</v>
       </c>
       <c r="T82" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="U82" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="V82" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11494,16 +11468,16 @@
         <v>26</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="14"/>
@@ -11542,13 +11516,13 @@
         <v>29</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="U83" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="V83" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11556,16 +11530,16 @@
         <v>26</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="0"/>
@@ -11604,13 +11578,13 @@
         <v>29</v>
       </c>
       <c r="T84" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="U84" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="V84" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11618,16 +11592,16 @@
         <v>26</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F85" s="16"/>
       <c r="G85" s="24"/>
@@ -11666,13 +11640,13 @@
         <v>29</v>
       </c>
       <c r="T85" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="U85" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="V85" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -11702,13 +11676,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11716,65 +11690,65 @@
         <v>5</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>120</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="F2" s="25" t="n">
         <v>7</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G3" s="28"/>
     </row>
@@ -11783,22 +11757,22 @@
         <v>57</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>121</v>
-      </c>
       <c r="E4" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F4" s="25" t="n">
         <v>6</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11806,86 +11780,86 @@
         <v>57</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>121</v>
-      </c>
       <c r="E6" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F6" s="25" t="n">
         <v>6</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>121</v>
-      </c>
       <c r="E7" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F7" s="25" t="n">
         <v>5</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8" s="25" t="n">
         <v>6</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11893,16 +11867,16 @@
         <v>63</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G9" s="28"/>
     </row>
@@ -11911,16 +11885,16 @@
         <v>65</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G10" s="28"/>
       <c r="L10" s="29"/>
@@ -11930,35 +11904,35 @@
         <v>67</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G11" s="28"/>
       <c r="L11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>129</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>130</v>
@@ -11973,13 +11947,13 @@
         <v>129</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>130</v>
@@ -11988,19 +11962,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>129</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>130</v>
@@ -12009,7 +11983,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>129</v>
@@ -12018,10 +11992,10 @@
         <v>60</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>130</v>
@@ -12039,10 +12013,10 @@
         <v>62</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>130</v>
@@ -12060,10 +12034,10 @@
         <v>64</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G17" s="30"/>
     </row>
@@ -12078,28 +12052,28 @@
         <v>66</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>131</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G19" s="28"/>
     </row>
@@ -12111,37 +12085,37 @@
         <v>131</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>131</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>131</v>
@@ -12150,10 +12124,10 @@
         <v>60</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G22" s="28"/>
     </row>
@@ -12168,10 +12142,10 @@
         <v>62</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G23" s="28"/>
     </row>
@@ -12186,10 +12160,10 @@
         <v>64</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G24" s="28"/>
     </row>
@@ -12204,28 +12178,28 @@
         <v>66</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="19" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>132</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G26" s="30"/>
     </row>
@@ -12237,31 +12211,31 @@
         <v>132</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G27" s="30"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>132</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G28" s="30"/>
       <c r="H28" s="25" t="s">
@@ -12270,7 +12244,7 @@
     </row>
     <row r="29" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="19" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>132</v>
@@ -12279,10 +12253,10 @@
         <v>60</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G29" s="30"/>
       <c r="H29" s="25" t="s">
@@ -12300,10 +12274,10 @@
         <v>62</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G30" s="30"/>
     </row>
@@ -12318,10 +12292,10 @@
         <v>64</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G31" s="30"/>
     </row>
@@ -12336,10 +12310,10 @@
         <v>66</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G32" s="30"/>
     </row>
